--- a/regions/6/biznes seqtori/saqmianobis mikhedvit_nace rev.2.xlsx
+++ b/regions/6/biznes seqtori/saqmianobis mikhedvit_nace rev.2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5C2199-65A6-4A79-9368-7A2700BAF293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="14115" yWindow="15" windowWidth="14790" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +16,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
-  <si>
-    <t>ბიზენს სექტორი</t>
-  </si>
   <si>
     <t>იმერეთი</t>
   </si>
@@ -84,11 +82,14 @@
   <si>
     <t>დასაქმებულთა შრომის საშუალოთვიური ანაზღაურება იმერეთის რეგიონში, ეკონომიკური საქმიანობის სახეების (NACE rev.2) მიხედვით, ლარი</t>
   </si>
+  <si>
+    <t>ბიზნეს სექტორი</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#_);\(#\);\-"/>
@@ -182,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -226,6 +227,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,6 +323,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -354,6 +375,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,11 +567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R76" sqref="R76"/>
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -545,23 +583,23 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
         <v>2006</v>
@@ -608,10 +646,16 @@
       <c r="P5" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q5" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="8">
         <v>661.1</v>
@@ -658,10 +702,16 @@
       <c r="P6" s="9">
         <v>4311.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q6" s="9">
+        <v>6512.9</v>
+      </c>
+      <c r="R6" s="9">
+        <v>7951.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="11">
         <v>0.8</v>
@@ -708,10 +758,16 @@
       <c r="P7" s="12">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q7" s="12">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="R7" s="12">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="11">
         <v>59.8</v>
@@ -758,10 +814,16 @@
       <c r="P8" s="12">
         <v>167.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q8" s="12">
+        <v>264.3</v>
+      </c>
+      <c r="R8" s="12">
+        <v>277.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="11">
         <v>190.2</v>
@@ -808,10 +870,16 @@
       <c r="P9" s="12">
         <v>1210</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q9" s="12">
+        <v>2505.8000000000002</v>
+      </c>
+      <c r="R9" s="12">
+        <v>3024.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="11">
         <v>41.6</v>
@@ -858,10 +926,16 @@
       <c r="P10" s="12">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q10" s="12">
+        <v>16.8</v>
+      </c>
+      <c r="R10" s="12">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="11">
         <v>6.6</v>
@@ -908,10 +982,16 @@
       <c r="P11" s="12">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q11" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="R11" s="12">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="11">
         <v>50.1</v>
@@ -958,10 +1038,16 @@
       <c r="P12" s="12">
         <v>481.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q12" s="12">
+        <v>625.9</v>
+      </c>
+      <c r="R12" s="12">
+        <v>999.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="11">
         <v>263.7</v>
@@ -1008,10 +1094,16 @@
       <c r="P13" s="12">
         <v>1939.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q13" s="12">
+        <v>2417.6999999999998</v>
+      </c>
+      <c r="R13" s="12">
+        <v>2663.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="11">
         <v>7.9</v>
@@ -1058,10 +1150,16 @@
       <c r="P14" s="12">
         <v>131.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q14" s="12">
+        <v>204.1</v>
+      </c>
+      <c r="R14" s="12">
+        <v>265.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="11">
         <v>5.5</v>
@@ -1108,10 +1206,16 @@
       <c r="P15" s="12">
         <v>36.299999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q15" s="12">
+        <v>43.4</v>
+      </c>
+      <c r="R15" s="12">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="11">
         <v>1.5</v>
@@ -1158,10 +1262,16 @@
       <c r="P16" s="12">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q16" s="12">
+        <v>26.5</v>
+      </c>
+      <c r="R16" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="11">
         <v>7.5</v>
@@ -1208,10 +1318,16 @@
       <c r="P17" s="12">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q17" s="12">
+        <v>63.9</v>
+      </c>
+      <c r="R17" s="12">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="11">
         <v>2.2999999999999998</v>
@@ -1258,10 +1374,16 @@
       <c r="P18" s="12">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q18" s="12">
+        <v>10.9</v>
+      </c>
+      <c r="R18" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="11">
         <v>4.5</v>
@@ -1308,10 +1430,16 @@
       <c r="P19" s="12">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q19" s="12">
+        <v>44</v>
+      </c>
+      <c r="R19" s="12">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="11">
         <v>2.4</v>
@@ -1358,10 +1486,16 @@
       <c r="P20" s="11">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q20" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="R20" s="11">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="11">
         <v>16</v>
@@ -1408,10 +1542,16 @@
       <c r="P21" s="11">
         <v>103.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q21" s="11">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="R21" s="11">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="11">
         <v>0.2</v>
@@ -1458,10 +1598,16 @@
       <c r="P22" s="11">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q22" s="11">
+        <v>83.5</v>
+      </c>
+      <c r="R22" s="11">
+        <v>139.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="11">
         <v>0.5</v>
@@ -1508,13 +1654,19 @@
       <c r="P23" s="11">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q23" s="11">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="R23" s="11">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="5">
         <v>2006</v>
@@ -1561,10 +1713,16 @@
       <c r="P27" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q27" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R27" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="8">
         <v>418.1</v>
@@ -1611,10 +1769,16 @@
       <c r="P28" s="9">
         <v>2772.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q28" s="9">
+        <v>4229.7</v>
+      </c>
+      <c r="R28" s="9">
+        <v>5112.3999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="11">
         <v>0.8</v>
@@ -1661,10 +1825,16 @@
       <c r="P29" s="12">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q29" s="12">
+        <v>37.9</v>
+      </c>
+      <c r="R29" s="12">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="11">
         <v>40.5</v>
@@ -1711,10 +1881,16 @@
       <c r="P30" s="12">
         <v>169.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q30" s="12">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="R30" s="12">
+        <v>272.39999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="11">
         <v>213.3</v>
@@ -1761,10 +1937,16 @@
       <c r="P31" s="12">
         <v>1208.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q31" s="12">
+        <v>2068.5</v>
+      </c>
+      <c r="R31" s="12">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="11">
         <v>32.4</v>
@@ -1811,10 +1993,16 @@
       <c r="P32" s="12">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q32" s="12">
+        <v>12.3</v>
+      </c>
+      <c r="R32" s="12">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="11">
         <v>8.6</v>
@@ -1861,10 +2049,16 @@
       <c r="P33" s="12">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q33" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="R33" s="12">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="11">
         <v>49.8</v>
@@ -1911,10 +2105,16 @@
       <c r="P34" s="12">
         <v>524.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q34" s="12">
+        <v>780.2</v>
+      </c>
+      <c r="R34" s="12">
+        <v>1049.9000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="11">
         <v>21.1</v>
@@ -1961,10 +2161,16 @@
       <c r="P35" s="12">
         <v>305.60000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q35" s="12">
+        <v>435.2</v>
+      </c>
+      <c r="R35" s="12">
+        <v>471.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="11">
         <v>8.1</v>
@@ -2011,10 +2217,16 @@
       <c r="P36" s="12">
         <v>133.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q36" s="12">
+        <v>135.9</v>
+      </c>
+      <c r="R36" s="12">
+        <v>197.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="11">
         <v>5.2</v>
@@ -2061,10 +2273,16 @@
       <c r="P37" s="12">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q37" s="12">
+        <v>43.5</v>
+      </c>
+      <c r="R37" s="12">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="11">
         <v>1.2</v>
@@ -2111,10 +2329,16 @@
       <c r="P38" s="12">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q38" s="12">
+        <v>26.9</v>
+      </c>
+      <c r="R38" s="12">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="11">
         <v>7.3</v>
@@ -2161,10 +2385,16 @@
       <c r="P39" s="12">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q39" s="12">
+        <v>63.9</v>
+      </c>
+      <c r="R39" s="12">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="11">
         <v>2.2999999999999998</v>
@@ -2211,10 +2441,16 @@
       <c r="P40" s="12">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q40" s="12">
+        <v>11</v>
+      </c>
+      <c r="R40" s="12">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="11">
         <v>4.5</v>
@@ -2261,10 +2497,16 @@
       <c r="P41" s="12">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q41" s="12">
+        <v>15.4</v>
+      </c>
+      <c r="R41" s="12">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="11">
         <v>2.6</v>
@@ -2311,10 +2553,16 @@
       <c r="P42" s="11">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q42" s="11">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R42" s="11">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="11">
         <v>19.8</v>
@@ -2361,10 +2609,16 @@
       <c r="P43" s="11">
         <v>175.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q43" s="11">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="R43" s="11">
+        <v>245.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="11">
         <v>0.2</v>
@@ -2411,10 +2665,16 @@
       <c r="P44" s="11">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q44" s="11">
+        <v>29.1</v>
+      </c>
+      <c r="R44" s="11">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45" s="11">
         <v>0.5</v>
@@ -2461,20 +2721,26 @@
       <c r="P45" s="11">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="11">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="R45" s="11">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
     </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4">
         <v>2006</v>
@@ -2521,10 +2787,16 @@
       <c r="P49" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q49" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R49" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="15">
         <v>37371</v>
@@ -2568,13 +2840,19 @@
       <c r="O50" s="15">
         <v>58015</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P50" s="15">
         <v>52960.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q50" s="15">
+        <v>58406</v>
+      </c>
+      <c r="R50" s="16">
+        <v>59446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="17">
         <v>185</v>
@@ -2618,13 +2896,19 @@
       <c r="O51" s="17">
         <v>541</v>
       </c>
-      <c r="P51" s="12">
+      <c r="P51" s="17">
         <v>419.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q51" s="17">
+        <v>383</v>
+      </c>
+      <c r="R51" s="17">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="17">
         <v>5110</v>
@@ -2668,13 +2952,19 @@
       <c r="O52" s="17">
         <v>2458</v>
       </c>
-      <c r="P52" s="12">
+      <c r="P52" s="17">
         <v>3631.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q52" s="17">
+        <v>4619</v>
+      </c>
+      <c r="R52" s="17">
+        <v>4729</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="17">
         <v>7420</v>
@@ -2718,13 +3008,19 @@
       <c r="O53" s="17">
         <v>13720</v>
       </c>
-      <c r="P53" s="12">
+      <c r="P53" s="17">
         <v>12588.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q53" s="17">
+        <v>12049</v>
+      </c>
+      <c r="R53" s="17">
+        <v>11595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" s="17">
         <v>1159</v>
@@ -2768,13 +3064,19 @@
       <c r="O54" s="17">
         <v>254</v>
       </c>
-      <c r="P54" s="12">
+      <c r="P54" s="17">
         <v>279</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q54" s="17">
+        <v>245</v>
+      </c>
+      <c r="R54" s="17">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="17">
         <v>1462</v>
@@ -2818,13 +3120,19 @@
       <c r="O55" s="17">
         <v>140</v>
       </c>
-      <c r="P55" s="12">
+      <c r="P55" s="17">
         <v>218</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q55" s="17">
+        <v>272</v>
+      </c>
+      <c r="R55" s="17">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" s="17">
         <v>3225</v>
@@ -2868,13 +3176,19 @@
       <c r="O56" s="17">
         <v>4032</v>
       </c>
-      <c r="P56" s="12">
+      <c r="P56" s="17">
         <v>4890.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q56" s="17">
+        <v>5847</v>
+      </c>
+      <c r="R56" s="17">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" s="17">
         <v>5472</v>
@@ -2918,13 +3232,19 @@
       <c r="O57" s="17">
         <v>14099</v>
       </c>
-      <c r="P57" s="12">
+      <c r="P57" s="17">
         <v>11822.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q57" s="17">
+        <v>14488</v>
+      </c>
+      <c r="R57" s="17">
+        <v>14741</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="17">
         <v>1628</v>
@@ -2968,13 +3288,19 @@
       <c r="O58" s="17">
         <v>2439</v>
       </c>
-      <c r="P58" s="12">
+      <c r="P58" s="17">
         <v>1837.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q58" s="17">
+        <v>2848</v>
+      </c>
+      <c r="R58" s="17">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" s="17">
         <v>847</v>
@@ -3018,13 +3344,19 @@
       <c r="O59" s="17">
         <v>2536</v>
       </c>
-      <c r="P59" s="12">
+      <c r="P59" s="17">
         <v>1724.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q59" s="17">
+        <v>1745</v>
+      </c>
+      <c r="R59" s="17">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60" s="17">
         <v>282</v>
@@ -3068,13 +3400,19 @@
       <c r="O60" s="17">
         <v>798</v>
       </c>
-      <c r="P60" s="12">
+      <c r="P60" s="17">
         <v>662.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q60" s="17">
+        <v>812</v>
+      </c>
+      <c r="R60" s="17">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61" s="17">
         <v>751</v>
@@ -3118,13 +3456,19 @@
       <c r="O61" s="17">
         <v>2471</v>
       </c>
-      <c r="P61" s="12">
+      <c r="P61" s="17">
         <v>1930.1</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q61" s="17">
+        <v>1916</v>
+      </c>
+      <c r="R61" s="17">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" s="17">
         <v>372</v>
@@ -3168,13 +3512,19 @@
       <c r="O62" s="17">
         <v>991</v>
       </c>
-      <c r="P62" s="12">
+      <c r="P62" s="17">
         <v>681.9</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q62" s="17">
+        <v>598</v>
+      </c>
+      <c r="R62" s="17">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B63" s="17">
         <v>596</v>
@@ -3218,13 +3568,19 @@
       <c r="O63" s="17">
         <v>841</v>
       </c>
-      <c r="P63" s="12">
+      <c r="P63" s="17">
         <v>467.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q63" s="17">
+        <v>513</v>
+      </c>
+      <c r="R63" s="17">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="17">
         <v>1349</v>
@@ -3268,13 +3624,19 @@
       <c r="O64" s="17">
         <v>1956</v>
       </c>
-      <c r="P64" s="11">
+      <c r="P64" s="17">
         <v>1762.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q64" s="17">
+        <v>1764</v>
+      </c>
+      <c r="R64" s="19">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B65" s="17">
         <v>7157</v>
@@ -3318,13 +3680,19 @@
       <c r="O65" s="17">
         <v>7567</v>
       </c>
-      <c r="P65" s="11">
+      <c r="P65" s="17">
         <v>7327.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q65" s="17">
+        <v>7472</v>
+      </c>
+      <c r="R65" s="19">
+        <v>7538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" s="17">
         <v>43</v>
@@ -3368,13 +3736,19 @@
       <c r="O66" s="17">
         <v>837</v>
       </c>
-      <c r="P66" s="11">
+      <c r="P66" s="17">
         <v>807.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q66" s="17">
+        <v>920</v>
+      </c>
+      <c r="R66" s="19">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67" s="17">
         <v>314</v>
@@ -3418,23 +3792,29 @@
       <c r="O67" s="17">
         <v>2334</v>
       </c>
-      <c r="P67" s="11">
+      <c r="P67" s="17">
         <v>1908.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="17">
+        <v>1914</v>
+      </c>
+      <c r="R67" s="19">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="7">
         <v>2006</v>
@@ -3481,10 +3861,16 @@
       <c r="P71" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q71" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R71" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" s="8">
         <v>165.4</v>
@@ -3531,10 +3917,16 @@
       <c r="P72" s="9">
         <v>929.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q72" s="9">
+        <v>1045.9000000000001</v>
+      </c>
+      <c r="R72" s="9">
+        <v>1290.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" s="11">
         <v>80.900000000000006</v>
@@ -3581,10 +3973,16 @@
       <c r="P73" s="12">
         <v>689.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q73" s="12">
+        <v>722.2</v>
+      </c>
+      <c r="R73" s="12">
+        <v>1195.4000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" s="11">
         <v>227.8</v>
@@ -3631,10 +4029,16 @@
       <c r="P74" s="12">
         <v>1253.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q74" s="12">
+        <v>1595.5</v>
+      </c>
+      <c r="R74" s="12">
+        <v>2072.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="11">
         <v>165.7</v>
@@ -3681,10 +4085,16 @@
       <c r="P75" s="12">
         <v>1025.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q75" s="12">
+        <v>1166.9000000000001</v>
+      </c>
+      <c r="R75" s="12">
+        <v>1625.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76" s="11">
         <v>464.6</v>
@@ -3731,10 +4141,16 @@
       <c r="P76" s="12">
         <v>1768.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q76" s="12">
+        <v>1929.9</v>
+      </c>
+      <c r="R76" s="12">
+        <v>1979.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" s="11">
         <v>97.3</v>
@@ -3781,10 +4197,16 @@
       <c r="P77" s="12">
         <v>703</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q77" s="12">
+        <v>752.9</v>
+      </c>
+      <c r="R77" s="12">
+        <v>744.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78" s="11">
         <v>235.1</v>
@@ -3831,10 +4253,16 @@
       <c r="P78" s="12">
         <v>1428.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q78" s="12">
+        <v>1712.9</v>
+      </c>
+      <c r="R78" s="12">
+        <v>1847.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B79" s="11">
         <v>110.7</v>
@@ -3881,10 +4309,16 @@
       <c r="P79" s="12">
         <v>665.3</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q79" s="12">
+        <v>599.5</v>
+      </c>
+      <c r="R79" s="12">
+        <v>791.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B80" s="11">
         <v>111.4</v>
@@ -3931,10 +4365,16 @@
       <c r="P80" s="12">
         <v>635</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q80" s="12">
+        <v>657.5</v>
+      </c>
+      <c r="R80" s="12">
+        <v>1017.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81" s="11">
         <v>65.8</v>
@@ -3981,10 +4421,16 @@
       <c r="P81" s="12">
         <v>411.3</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q81" s="12">
+        <v>388.2</v>
+      </c>
+      <c r="R81" s="12">
+        <v>487.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82" s="11">
         <v>64.400000000000006</v>
@@ -4031,10 +4477,16 @@
       <c r="P82" s="12">
         <v>1539.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q82" s="12">
+        <v>878.6</v>
+      </c>
+      <c r="R82" s="12">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" s="11">
         <v>138.30000000000001</v>
@@ -4081,10 +4533,16 @@
       <c r="P83" s="12">
         <v>686.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q83" s="12">
+        <v>690.7</v>
+      </c>
+      <c r="R83" s="12">
+        <v>939.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B84" s="11">
         <v>157.9</v>
@@ -4131,10 +4589,16 @@
       <c r="P84" s="12">
         <v>989.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q84" s="12">
+        <v>823.4</v>
+      </c>
+      <c r="R84" s="12">
+        <v>534.20000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B85" s="11">
         <v>270.60000000000002</v>
@@ -4181,10 +4645,16 @@
       <c r="P85" s="12">
         <v>644</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q85" s="12">
+        <v>869.8</v>
+      </c>
+      <c r="R85" s="12">
+        <v>713.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="11">
         <v>81.599999999999994</v>
@@ -4231,10 +4701,16 @@
       <c r="P86" s="11">
         <v>559.79999999999995</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q86" s="11">
+        <v>505.6</v>
+      </c>
+      <c r="R86" s="11">
+        <v>719.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B87" s="11">
         <v>118.7</v>
@@ -4281,10 +4757,16 @@
       <c r="P87" s="11">
         <v>980.1</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q87" s="11">
+        <v>1140.0999999999999</v>
+      </c>
+      <c r="R87" s="11">
+        <v>1295.4000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B88" s="11">
         <v>56.9</v>
@@ -4331,10 +4813,16 @@
       <c r="P88" s="11">
         <v>465.4</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q88" s="11">
+        <v>866.3</v>
+      </c>
+      <c r="R88" s="11">
+        <v>1155.9000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B89" s="11">
         <v>59.8</v>
@@ -4380,6 +4868,12 @@
       </c>
       <c r="P89" s="11">
         <v>211.5</v>
+      </c>
+      <c r="Q89" s="11">
+        <v>573.6</v>
+      </c>
+      <c r="R89" s="11">
+        <v>294.8</v>
       </c>
     </row>
   </sheetData>
